--- a/Design.xlsx
+++ b/Design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Soft ware\Project\supply-track\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10F6718-1B6C-4D80-BBBD-4129D0982812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA67E9FC-294B-498F-A614-A802302FFEA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
   <si>
     <t>S.NO#</t>
   </si>
@@ -163,9 +163,6 @@
   </si>
   <si>
     <t>ON HOLD</t>
-  </si>
-  <si>
-    <t>ADD/LESS/SAVE</t>
   </si>
   <si>
     <t>CURRENCY</t>
@@ -208,7 +205,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -232,32 +229,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -274,13 +245,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -294,41 +262,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -345,6 +306,487 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle: Rounded Corners 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{731B17E4-18A5-FEB3-F91C-3F31D3B588A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12443460" y="746760"/>
+          <a:ext cx="251460" cy="251460"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>+</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle: Rounded Corners 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAA372A1-A5DB-4194-98C7-211FF9BDB28A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12816840" y="746760"/>
+          <a:ext cx="251460" cy="251460"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle: Rounded Corners 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22904F81-8055-F0BD-D259-D27E65B2DFD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11567160" y="2202180"/>
+          <a:ext cx="861060" cy="220980"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SAVE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> ALL</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle: Rounded Corners 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D130D650-7DFA-4EFA-A059-5DE77CD6E22B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12534900" y="2217420"/>
+          <a:ext cx="861060" cy="220980"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ADD</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> NEW</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle: Rounded Corners 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07BF936E-9420-4DB0-8199-BDA9D9CC0F70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12443460" y="746760"/>
+          <a:ext cx="251460" cy="251460"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>+</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle: Rounded Corners 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51CB9723-3088-4C97-B86A-C8888F17C390}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12816840" y="746760"/>
+          <a:ext cx="251460" cy="251460"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -677,7 +1119,7 @@
   <dimension ref="A2:U13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="A8" sqref="A8:Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -696,172 +1138,186 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="N2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" s="12" t="s">
+      <c r="O2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
     </row>
-    <row r="3" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15" t="s">
+    <row r="3" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="M3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="N3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="15" t="s">
+      <c r="O3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="18" t="s">
+      <c r="P3" s="11"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="S3" s="13" t="s">
+      <c r="S3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="13" t="s">
+      <c r="T3" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="6" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
+    <row r="4" spans="1:21" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="8" t="e" vm="1">
+      <c r="C4" s="15" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="15">
         <v>9</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="15">
         <v>10000</v>
       </c>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8" t="s">
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8" t="s">
+      <c r="Q4" s="15"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="U4" s="6" t="s">
+      <c r="U4" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="P5" s="5" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="16" t="s">
         <v>27</v>
       </c>
+      <c r="Q5" s="15"/>
       <c r="T5" t="s">
         <v>31</v>
       </c>
@@ -870,56 +1326,210 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="P6" s="5" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="16" t="s">
         <v>8</v>
       </c>
+      <c r="Q6" s="15"/>
       <c r="T6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="P7" s="5"/>
+      <c r="P7" s="4"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="15">
+        <v>1</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="15" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="15">
+        <v>9</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="15">
+        <v>10000</v>
+      </c>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q8" s="15"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q9" s="15"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q10" s="15"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="2"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="57">
+    <mergeCell ref="Q8:Q10"/>
+    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="L8:L10"/>
+    <mergeCell ref="M8:M10"/>
+    <mergeCell ref="N8:N10"/>
+    <mergeCell ref="O8:O10"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="K12:P12"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="I2:I3"/>
@@ -928,25 +1538,9 @@
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="K12:P12"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="H12:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Design.xlsx
+++ b/Design.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Soft ware\Project\supply-track\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA67E9FC-294B-498F-A614-A802302FFEA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D105EA8-DD53-4604-B3C5-B75DC1D30C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="39">
   <si>
     <t>S.NO#</t>
   </si>
@@ -166,6 +167,15 @@
   </si>
   <si>
     <t>CURRENCY</t>
+  </si>
+  <si>
+    <t>3.20 USD</t>
+  </si>
+  <si>
+    <t>PRICE</t>
+  </si>
+  <si>
+    <t>STYLE #</t>
   </si>
 </sst>
 </file>
@@ -205,7 +215,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -241,11 +251,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -273,23 +329,53 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1116,10 +1202,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:U13"/>
+  <dimension ref="A2:U19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:Q10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1138,52 +1224,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="16" t="s">
         <v>5</v>
       </c>
       <c r="Q2" s="7"/>
@@ -1192,46 +1278,46 @@
       <c r="T2" s="7"/>
     </row>
     <row r="3" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="11"/>
+      <c r="P3" s="16"/>
       <c r="Q3" s="8"/>
       <c r="R3" s="10" t="s">
         <v>28</v>
@@ -1244,52 +1330,52 @@
       </c>
     </row>
     <row r="4" spans="1:21" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15">
+      <c r="A4" s="13">
         <v>1</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="15" t="e" vm="1">
+      <c r="C4" s="13" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="13">
         <v>9</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="15">
+      <c r="M4" s="13">
         <v>10000</v>
       </c>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
       <c r="P4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="14"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="11"/>
       <c r="S4" s="6"/>
       <c r="T4" s="6" t="s">
         <v>30</v>
@@ -1299,25 +1385,25 @@
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="16" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="15"/>
+      <c r="Q5" s="13"/>
       <c r="T5" t="s">
         <v>31</v>
       </c>
@@ -1326,25 +1412,25 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="16" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="Q6" s="15"/>
+      <c r="Q6" s="13"/>
       <c r="T6" t="s">
         <v>34</v>
       </c>
@@ -1353,123 +1439,123 @@
       <c r="P7" s="4"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A8" s="15">
+      <c r="A8" s="13">
         <v>1</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="15" t="e" vm="1">
+      <c r="C8" s="13" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="13">
         <v>9</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="L8" s="15" t="s">
+      <c r="L8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="M8" s="15">
+      <c r="M8" s="13">
         <v>10000</v>
       </c>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
       <c r="P8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="Q8" s="15"/>
+      <c r="Q8" s="13"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="16" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="Q9" s="15"/>
+      <c r="Q9" s="13"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="16" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="Q10" s="15"/>
+      <c r="Q10" s="13"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="14"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="14"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1477,10 +1563,77 @@
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
-      <c r="Q13" s="13"/>
+      <c r="Q13" s="14"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="K15" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="18"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="K16" s="17"/>
+      <c r="L16" s="18"/>
+    </row>
+    <row r="17" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K17" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K18" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K19" s="12" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="58">
+    <mergeCell ref="K15:L16"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="K12:P12"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="O8:O10"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
     <mergeCell ref="Q8:Q10"/>
     <mergeCell ref="Q4:Q6"/>
     <mergeCell ref="A8:A10"/>
@@ -1497,50 +1650,262 @@
     <mergeCell ref="L8:L10"/>
     <mergeCell ref="M8:M10"/>
     <mergeCell ref="N8:N10"/>
-    <mergeCell ref="O8:O10"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="K12:P12"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F65CC18D-061C-4F15-94E0-FF6132A529B2}">
+  <dimension ref="C5:S10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:S10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="14" max="14" width="14.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C5" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="P5" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+    </row>
+    <row r="6" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="R6" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S6" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q7" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+    </row>
+    <row r="8" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C8" s="13">
+        <v>1</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="13" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="13">
+        <v>9</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" s="13">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+    </row>
+    <row r="9" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+    </row>
+    <row r="10" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="O8:O10"/>
+    <mergeCell ref="P8:P10"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="Q8:Q10"/>
+    <mergeCell ref="R8:R10"/>
+    <mergeCell ref="S8:S10"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="L8:L10"/>
+    <mergeCell ref="M8:M10"/>
+    <mergeCell ref="N8:N10"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="P5:P7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="K5:K7"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="H5:H7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>